--- a/dados_graduacao/Tabela2.05.xlsx
+++ b/dados_graduacao/Tabela2.05.xlsx
@@ -1,145 +1,139 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAI-DPO\GITHUB\ANUARIO\anuario2020\dados_graduacao\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
-  <si>
-    <t>Faixa Etária</t>
-  </si>
-  <si>
-    <t>Feminino</t>
-  </si>
-  <si>
-    <t>% Feminino</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>% Masculino</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>% Total</t>
-  </si>
-  <si>
-    <t>Até 18 anos</t>
-  </si>
-  <si>
-    <t>55.2%</t>
-  </si>
-  <si>
-    <t>44.8%</t>
-  </si>
-  <si>
-    <t>36%</t>
-  </si>
-  <si>
-    <t>De 19 a 24 anos</t>
-  </si>
-  <si>
-    <t>49.5%</t>
-  </si>
-  <si>
-    <t>50.5%</t>
-  </si>
-  <si>
-    <t>48.4%</t>
-  </si>
-  <si>
-    <t>De 25 a 29 anos</t>
-  </si>
-  <si>
-    <t>44.2%</t>
-  </si>
-  <si>
-    <t>55.8%</t>
-  </si>
-  <si>
-    <t>7.5%</t>
-  </si>
-  <si>
-    <t>De 30 a 34 anos</t>
-  </si>
-  <si>
-    <t>36.1%</t>
-  </si>
-  <si>
-    <t>63.9%</t>
-  </si>
-  <si>
-    <t>3.2%</t>
-  </si>
-  <si>
-    <t>De 35 a 39 anos</t>
-  </si>
-  <si>
-    <t>34.4%</t>
-  </si>
-  <si>
-    <t>65.6%</t>
-  </si>
-  <si>
-    <t>1.9%</t>
-  </si>
-  <si>
-    <t>De 40 a 44 anos</t>
-  </si>
-  <si>
-    <t>29.4%</t>
-  </si>
-  <si>
-    <t>70.6%</t>
-  </si>
-  <si>
-    <t>1.1%</t>
-  </si>
-  <si>
-    <t>De 45 anos ou mais</t>
-  </si>
-  <si>
-    <t>31.5%</t>
-  </si>
-  <si>
-    <t>68.5%</t>
-  </si>
-  <si>
-    <t>1.8%</t>
-  </si>
-  <si>
-    <t>49.9%</t>
-  </si>
-  <si>
-    <t>50.1%</t>
-  </si>
-  <si>
-    <t>100%</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t xml:space="preserve">Faixa Etária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feminino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Feminino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masculino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Masculino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Até 18 anos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55,2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44,8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De 19 a 24 anos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49,5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50,5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48,4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De 25 a 29 anos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44,2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55,8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De 30 a 34 anos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63,9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De 35 a 39 anos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34,4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65,6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De 40 a 44 anos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70,6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De 45 anos ou mais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31,5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68,5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49,9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50,1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -175,15 +169,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -465,16 +450,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,184 +480,184 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>1921</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>1556</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>3477</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>2313</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>2360</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>4673</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>320</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>404</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>724</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>112</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>198</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>310</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>64</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>122</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>186</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>77</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>109</v>
       </c>
       <c r="G7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>122</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>178</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>4818</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>4839</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>9657</v>
       </c>
       <c r="G9" t="s">
@@ -683,6 +666,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>